--- a/realme/SEPTEMBER/All Details/23.09.2021/realme Bank Statement August-2021.xlsx
+++ b/realme/SEPTEMBER/All Details/23.09.2021/realme Bank Statement August-2021.xlsx
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>Date: 23.09.2021</t>
+  </si>
+  <si>
+    <t>bKash Jafor (-)</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +1794,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2493,12 +2496,36 @@
     <xf numFmtId="1" fontId="42" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,28 +2553,10 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3179,21 +3188,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="B1" s="243" t="s">
+      <c r="B1" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1">
       <c r="A2" s="15"/>
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="B3" s="16" t="s">
@@ -4021,67 +4030,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="245"/>
-      <c r="Q1" s="245"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
+      <c r="O1" s="253"/>
+      <c r="P1" s="253"/>
+      <c r="Q1" s="253"/>
     </row>
     <row r="2" spans="1:24" s="121" customFormat="1" ht="18">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="254" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
     </row>
     <row r="3" spans="1:24" s="122" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="255" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="248"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="249"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="257"/>
       <c r="S3" s="50"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4090,52 +4099,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="124" customFormat="1">
-      <c r="A4" s="250" t="s">
+      <c r="A4" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="260" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="254" t="s">
+      <c r="C4" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="247" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="254" t="s">
+      <c r="F4" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="254" t="s">
+      <c r="G4" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="254" t="s">
+      <c r="H4" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="254" t="s">
+      <c r="I4" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="254" t="s">
+      <c r="J4" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="254" t="s">
+      <c r="K4" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="254" t="s">
+      <c r="L4" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="254" t="s">
+      <c r="M4" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="260" t="s">
+      <c r="N4" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="258" t="s">
+      <c r="O4" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="256" t="s">
+      <c r="P4" s="262" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="123" t="s">
@@ -4148,22 +4157,22 @@
       <c r="W4" s="126"/>
     </row>
     <row r="5" spans="1:24" s="124" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="251"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
-      <c r="G5" s="255"/>
-      <c r="H5" s="255"/>
-      <c r="I5" s="255"/>
-      <c r="J5" s="255"/>
-      <c r="K5" s="255"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="261"/>
-      <c r="O5" s="259"/>
-      <c r="P5" s="257"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="261"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="250"/>
+      <c r="P5" s="263"/>
       <c r="Q5" s="128" t="s">
         <v>43</v>
       </c>
@@ -7229,9 +7238,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7248,6 +7254,9 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7286,14 +7295,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
       <c r="L1" s="40"/>
       <c r="M1" s="177"/>
       <c r="N1" s="177"/>
@@ -7346,14 +7355,14 @@
       <c r="BI1" s="177"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
       <c r="L2" s="40"/>
       <c r="M2" s="177"/>
       <c r="N2" s="177"/>
@@ -7406,14 +7415,14 @@
       <c r="BI2" s="177"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
       <c r="K3" s="177"/>
       <c r="L3" s="40"/>
       <c r="M3" s="177"/>
@@ -9589,12 +9598,12 @@
       <c r="BI34" s="177"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="271" t="s">
+      <c r="A35" s="273" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="273"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="275"/>
       <c r="E35" s="50"/>
       <c r="F35" s="45"/>
       <c r="G35" s="62"/>
@@ -9654,12 +9663,12 @@
       <c r="BI35" s="177"/>
     </row>
     <row r="36" spans="1:61">
-      <c r="A36" s="275" t="s">
+      <c r="A36" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="276"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="277"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="279"/>
       <c r="E36" s="66">
         <f>F33-C113+K136</f>
         <v>0</v>
@@ -10148,13 +10157,13 @@
       </c>
       <c r="D43" s="231"/>
       <c r="E43" s="50"/>
-      <c r="F43" s="274" t="s">
+      <c r="F43" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="274"/>
-      <c r="H43" s="274"/>
-      <c r="I43" s="274"/>
-      <c r="J43" s="274"/>
+      <c r="G43" s="276"/>
+      <c r="H43" s="276"/>
+      <c r="I43" s="276"/>
+      <c r="J43" s="276"/>
       <c r="K43" s="74"/>
       <c r="L43" s="42"/>
       <c r="M43" s="177"/>
@@ -11360,10 +11369,10 @@
       <c r="C62" s="235"/>
       <c r="D62" s="85"/>
       <c r="E62" s="55"/>
-      <c r="F62" s="262" t="s">
+      <c r="F62" s="264" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="262"/>
+      <c r="G62" s="264"/>
       <c r="H62" s="176"/>
       <c r="I62" s="176"/>
       <c r="J62" s="86" t="s">
@@ -14705,10 +14714,10 @@
       <c r="BI112" s="177"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="263" t="s">
+      <c r="A113" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="B113" s="264"/>
+      <c r="B113" s="266"/>
       <c r="C113" s="236">
         <f>SUM(C37:C112)</f>
         <v>459130</v>
@@ -14840,10 +14849,10 @@
       <c r="BI114" s="177"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="265" t="s">
+      <c r="A115" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="266"/>
+      <c r="B115" s="268"/>
       <c r="C115" s="238">
         <f>C113+L136</f>
         <v>459130</v>
@@ -16761,8 +16770,8 @@
       <c r="N169" s="180"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="267"/>
-      <c r="G170" s="267"/>
+      <c r="F170" s="269"/>
+      <c r="G170" s="269"/>
       <c r="H170" s="177"/>
       <c r="I170" s="53"/>
       <c r="J170" s="40"/>
@@ -17421,8 +17430,8 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17442,35 +17451,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="280" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="280"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="282"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="289" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="289"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="291"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="283"/>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="285"/>
       <c r="F3" s="1"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -17497,13 +17506,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="290" t="s">
+      <c r="A4" s="292" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="292"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="294"/>
       <c r="F4" s="1"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -17611,7 +17620,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="169">
-        <v>282685</v>
+        <v>32685</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="29"/>
@@ -17823,8 +17832,12 @@
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="244">
+        <v>250000</v>
+      </c>
       <c r="C13" s="33"/>
       <c r="D13" s="195"/>
       <c r="E13" s="36"/>
@@ -17930,7 +17943,7 @@
       </c>
       <c r="B16" s="35">
         <f>B5+B6-B9-B10-B13-B14</f>
-        <v>6151950</v>
+        <v>5901950</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="195" t="s">
@@ -17938,7 +17951,7 @@
       </c>
       <c r="E16" s="36">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>6151950</v>
+        <v>5901950</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="170">
@@ -18001,13 +18014,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="22.5">
-      <c r="A18" s="284" t="s">
+      <c r="A18" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="285"/>
-      <c r="C18" s="285"/>
-      <c r="D18" s="285"/>
-      <c r="E18" s="286"/>
+      <c r="B18" s="287"/>
+      <c r="C18" s="287"/>
+      <c r="D18" s="287"/>
+      <c r="E18" s="288"/>
       <c r="F18" s="1"/>
       <c r="G18" s="8"/>
       <c r="H18" s="190"/>
